--- a/src/data/test3.xlsx
+++ b/src/data/test3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="8385"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="сайт (2)" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
   <si>
     <t>Номи</t>
   </si>
@@ -37,127 +37,139 @@
     <t>12 месяц</t>
   </si>
   <si>
-    <t xml:space="preserve">15 Pro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">128GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue </t>
+    <t>S24 Ultra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/512gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium Gray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium Violet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium Yellow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/256gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24+ </t>
+  </si>
+  <si>
+    <t>12/256gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/256gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/128gb </t>
+  </si>
+  <si>
+    <t>S23 Ultra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream </t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S23 </t>
+  </si>
+  <si>
+    <t>Z Fold 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue </t>
+  </si>
+  <si>
+    <t>Z Flip 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/512gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mint </t>
+  </si>
+  <si>
+    <t>Z Fold 4</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/256gb 5G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">White </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/128gb 5G </t>
+  </si>
+  <si>
+    <t>A55</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver </t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/128gb </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow </t>
+  </si>
+  <si>
+    <t>A05s</t>
   </si>
   <si>
     <t xml:space="preserve">black </t>
   </si>
   <si>
-    <t xml:space="preserve">White </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural </t>
-  </si>
-  <si>
-    <t xml:space="preserve">256GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Pro Max </t>
-  </si>
-  <si>
-    <t xml:space="preserve">512GB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">128gb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">256gb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 plus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Х5 Plus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X6 A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/64 Mix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X6 А </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/128 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X6A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/128 Mix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Х7А+ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X7B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/128 mix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Х8В </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X8B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/256 mix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Х8A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X9A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X9А </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Х9В </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25б mix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/25б mix </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honor90 Lite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/25б </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honor 90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/256 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/512 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honor 70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/128 </t>
+    <t xml:space="preserve">green </t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver </t>
   </si>
 </sst>
 </file>
@@ -165,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ [$UZS]_-;\-* #,##0\ [$UZS]_-;_-* &quot;-&quot;??\ [$UZS]_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ [$UZS]_-;\-* #,##0\ [$UZS]_-;_-* &quot;-&quot;??\ [$UZS]_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -223,21 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -246,44 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -300,17 +259,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,16 +296,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,10 +319,48 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -373,19 +385,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,79 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,37 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +469,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,15 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,15 +652,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,6 +682,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -699,15 +711,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,140 +729,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,16 +886,14 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,7 +921,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1239,7 +1249,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G44"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1276,691 +1286,739 @@
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>1099</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1416.15</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3776850</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2173187.5</v>
+      <c r="D2" s="2">
+        <v>1140</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1458</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3888570</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2237470.83333333</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>1099</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1416.15</v>
-      </c>
-      <c r="F3" s="7">
-        <v>3776850</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2173187.5</v>
+      <c r="D3" s="2">
+        <v>1140</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1458</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3888570</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2237470.83333333</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
-        <v>1099</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1416.15</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3776850</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2173187.5</v>
+      <c r="D4" s="2">
+        <v>1140</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1458</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3888570</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2237470.83333333</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>1099</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1416.15</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3776850</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2173187.5</v>
+      <c r="D5" s="2">
+        <v>1140</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1458</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3888570</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2237470.83333333</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1070</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1363.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3636360</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2092350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1070</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1363.5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3636360</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2092350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
-        <v>1199</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1537.65</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4100880</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2359633.33333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>850</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1093.5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2916270</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1678012.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>750</v>
+      </c>
+      <c r="E9" s="2">
+        <v>958.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2556330</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1470904.16666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>750</v>
+      </c>
+      <c r="E10" s="2">
+        <v>958.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2556330</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1470904.16666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>710</v>
+      </c>
+      <c r="E11" s="2">
+        <v>904.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2412270</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1388012.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>980</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1255.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3348450</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1926687.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>980</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1255.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3348450</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1926687.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>980</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1255.5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3348450</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1926687.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1199</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1537.65</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4100880</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2359633.33333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>850</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1093.5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2916270</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1678012.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1199</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1537.65</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4100880</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2359633.33333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
+        <v>850</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1093.5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2916270</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1678012.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1209</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1551.15</v>
-      </c>
-      <c r="F9" s="7">
-        <v>4137000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2380416.66666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>850</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1093.5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2916270</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1678012.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2">
+        <v>660</v>
+      </c>
+      <c r="E18" s="2">
+        <v>837</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2232300</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1284458.33333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2">
+        <v>660</v>
+      </c>
+      <c r="E19" s="2">
+        <v>837</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2232300</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1284458.33333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>625</v>
+      </c>
+      <c r="E20" s="2">
+        <v>789.75</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2106300</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1211958.33333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D21" s="2">
+        <v>625</v>
+      </c>
+      <c r="E21" s="2">
+        <v>789.75</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2106300</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1211958.33333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1210</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1552.5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4140570</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2382470.83333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1210</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1552.5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4140570</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2382470.83333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1210</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1552.5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4140570</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2382470.83333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1299</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1672.65</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4461030</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2566862.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1485</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3960600</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2278916.66666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1160</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1485</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3960600</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2278916.66666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1299</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1672.65</v>
-      </c>
-      <c r="F11" s="7">
-        <v>4461030</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2566862.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1309</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1686.15</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4496940</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2587525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1309</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1686.15</v>
-      </c>
-      <c r="F13" s="7">
-        <v>4496940</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2587525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1530</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1984.5</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5292630</v>
-      </c>
-      <c r="G14" s="7">
-        <v>3045362.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1530</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1984.5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5292630</v>
-      </c>
-      <c r="G15" s="7">
-        <v>3045362.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1550</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2011.5</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5364660</v>
-      </c>
-      <c r="G16" s="7">
-        <v>3086808.33333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1540</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1998</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5328750</v>
-      </c>
-      <c r="G17" s="7">
-        <v>3066145.83333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1710</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2227.5</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5940690</v>
-      </c>
-      <c r="G18" s="7">
-        <v>3418254.16666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1780</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2322</v>
-      </c>
-      <c r="F19" s="7">
-        <v>6192690</v>
-      </c>
-      <c r="G19" s="7">
-        <v>3563254.16666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1780</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2322</v>
-      </c>
-      <c r="F20" s="7">
-        <v>6192690</v>
-      </c>
-      <c r="G20" s="7">
-        <v>3563254.16666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1740</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2268</v>
-      </c>
-      <c r="F21" s="7">
-        <v>6048840</v>
-      </c>
-      <c r="G21" s="7">
-        <v>3480483.33333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <v>819</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1051.65</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2804760</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1613850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>1049</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1348.65</v>
-      </c>
-      <c r="F23" s="7">
-        <v>3596880</v>
-      </c>
-      <c r="G23" s="7">
-        <v>2069633.33333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1282.5</v>
-      </c>
-      <c r="F24" s="7">
-        <v>3420480</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1968133.33333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>1210</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1552.5</v>
-      </c>
-      <c r="F25" s="7">
-        <v>4140570</v>
-      </c>
-      <c r="G25" s="7">
-        <v>2382470.83333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="2">
+        <v>720</v>
+      </c>
+      <c r="E27" s="2">
+        <v>918</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2448390</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1408795.83333333</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2">
-        <v>64</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>130</v>
-      </c>
-      <c r="E28" s="1">
-        <v>151.2</v>
-      </c>
-      <c r="F28" s="7">
-        <v>403200</v>
-      </c>
-      <c r="G28" s="7">
-        <v>232000</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2">
+        <v>690</v>
+      </c>
+      <c r="E28" s="2">
+        <v>877.5</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2340240</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1346566.66666667</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>158</v>
-      </c>
-      <c r="E29" s="1">
-        <v>189</v>
-      </c>
-      <c r="F29" s="7">
-        <v>504000</v>
-      </c>
-      <c r="G29" s="7">
-        <v>290000</v>
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>690</v>
+      </c>
+      <c r="E29" s="2">
+        <v>877.5</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2340240</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1346566.66666667</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <v>148</v>
-      </c>
-      <c r="E30" s="1">
-        <v>175.5</v>
-      </c>
-      <c r="F30" s="7">
-        <v>468090</v>
-      </c>
-      <c r="G30" s="7">
-        <v>269337.5</v>
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1040</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1336.5</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3564540</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2051025</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
-        <v>153</v>
-      </c>
-      <c r="E31" s="1">
-        <v>182.25</v>
-      </c>
-      <c r="F31" s="7">
-        <v>486150</v>
-      </c>
-      <c r="G31" s="7">
-        <v>279729.166666667</v>
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2">
+        <v>540</v>
+      </c>
+      <c r="E31" s="2">
+        <v>675</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1800330</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1035904.16666667</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>198</v>
-      </c>
-      <c r="E32" s="1">
-        <v>243</v>
-      </c>
-      <c r="F32" s="7">
-        <v>648060</v>
-      </c>
-      <c r="G32" s="7">
-        <v>372891.666666667</v>
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2">
+        <v>540</v>
+      </c>
+      <c r="E32" s="2">
+        <v>675</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1800330</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1035904.16666667</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>188</v>
-      </c>
-      <c r="E33" s="1">
-        <v>229.5</v>
-      </c>
-      <c r="F33" s="7">
-        <v>612150</v>
-      </c>
-      <c r="G33" s="7">
-        <v>352229.166666667</v>
+        <v>35</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2">
+        <v>490</v>
+      </c>
+      <c r="E33" s="2">
+        <v>607.5</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1620150</v>
+      </c>
+      <c r="G33" s="8">
+        <v>932229.166666667</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1968,62 +2026,68 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>233</v>
-      </c>
-      <c r="E34" s="1">
-        <v>290.25</v>
-      </c>
-      <c r="F34" s="7">
-        <v>774060</v>
-      </c>
-      <c r="G34" s="7">
-        <v>445391.666666667</v>
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2">
+        <v>490</v>
+      </c>
+      <c r="E34" s="2">
+        <v>607.5</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1620150</v>
+      </c>
+      <c r="G34" s="8">
+        <v>932229.166666667</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>248</v>
-      </c>
-      <c r="E35" s="1">
-        <v>310.5</v>
-      </c>
-      <c r="F35" s="7">
-        <v>828030</v>
-      </c>
-      <c r="G35" s="7">
-        <v>476445.833333333</v>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2">
+        <v>373</v>
+      </c>
+      <c r="E35" s="2">
+        <v>479.25</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1278060</v>
+      </c>
+      <c r="G35" s="8">
+        <v>735391.666666667</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>213</v>
-      </c>
-      <c r="E36" s="1">
-        <v>263.25</v>
-      </c>
-      <c r="F36" s="7">
-        <v>702030</v>
-      </c>
-      <c r="G36" s="7">
-        <v>403945.833333333</v>
+        <v>33</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2">
+        <v>373</v>
+      </c>
+      <c r="E36" s="2">
+        <v>479.25</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1278060</v>
+      </c>
+      <c r="G36" s="8">
+        <v>735391.666666667</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2031,276 +2095,460 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <v>342</v>
-      </c>
-      <c r="E37" s="1">
-        <v>437.4</v>
-      </c>
-      <c r="F37" s="7">
-        <v>1166550</v>
-      </c>
-      <c r="G37" s="7">
-        <v>671229.166666667</v>
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2">
+        <v>373</v>
+      </c>
+      <c r="E37" s="2">
+        <v>479.25</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1278060</v>
+      </c>
+      <c r="G37" s="8">
+        <v>735391.666666667</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>362</v>
-      </c>
-      <c r="E38" s="1">
-        <v>464.4</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1238580</v>
-      </c>
-      <c r="G38" s="7">
-        <v>712675</v>
+        <v>35</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2">
+        <v>343</v>
+      </c>
+      <c r="E38" s="2">
+        <v>438.75</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1170120</v>
+      </c>
+      <c r="G38" s="8">
+        <v>673283.333333333</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <v>308</v>
-      </c>
-      <c r="E39" s="1">
-        <v>391.5</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1044120</v>
-      </c>
-      <c r="G39" s="7">
-        <v>600783.333333333</v>
+      <c r="D39" s="2">
+        <v>343</v>
+      </c>
+      <c r="E39" s="2">
+        <v>438.75</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1170120</v>
+      </c>
+      <c r="G39" s="8">
+        <v>673283.333333333</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1">
-        <v>342</v>
-      </c>
-      <c r="E40" s="1">
-        <v>437.4</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1166550</v>
-      </c>
-      <c r="G40" s="7">
-        <v>671229.166666667</v>
+        <v>33</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2">
+        <v>332</v>
+      </c>
+      <c r="E40" s="2">
+        <v>423.9</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1130640</v>
+      </c>
+      <c r="G40" s="8">
+        <v>650566.666666667</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1">
-        <v>253</v>
-      </c>
-      <c r="E41" s="1">
-        <v>317.25</v>
-      </c>
-      <c r="F41" s="7">
-        <v>846090</v>
-      </c>
-      <c r="G41" s="7">
-        <v>486837.5</v>
+        <v>33</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2">
+        <v>332</v>
+      </c>
+      <c r="E41" s="2">
+        <v>423.9</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1130640</v>
+      </c>
+      <c r="G41" s="8">
+        <v>650566.666666667</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>478</v>
-      </c>
-      <c r="E42" s="1">
-        <v>621</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1656270</v>
-      </c>
-      <c r="G42" s="7">
-        <v>953012.5</v>
+        <v>33</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2">
+        <v>332</v>
+      </c>
+      <c r="E42" s="2">
+        <v>423.9</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1130640</v>
+      </c>
+      <c r="G42" s="8">
+        <v>650566.666666667</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1">
-        <v>520</v>
-      </c>
-      <c r="E43" s="1">
-        <v>661.5</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1764210</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1015120.83333333</v>
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2">
+        <v>332</v>
+      </c>
+      <c r="E43" s="2">
+        <v>423.9</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1130640</v>
+      </c>
+      <c r="G43" s="8">
+        <v>650566.666666667</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2">
+        <v>303</v>
+      </c>
+      <c r="E44" s="2">
+        <v>384.75</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1026060</v>
+      </c>
+      <c r="G44" s="8">
+        <v>590391.666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2">
+        <v>303</v>
+      </c>
+      <c r="E45" s="2">
+        <v>384.75</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1026060</v>
+      </c>
+      <c r="G45" s="8">
+        <v>590391.666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2">
+        <v>228</v>
+      </c>
+      <c r="E46" s="2">
+        <v>283.5</v>
+      </c>
+      <c r="F46" s="8">
+        <v>756000</v>
+      </c>
+      <c r="G46" s="8">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="2">
+        <v>228</v>
+      </c>
+      <c r="E47" s="2">
+        <v>283.5</v>
+      </c>
+      <c r="F47" s="8">
+        <v>756000</v>
+      </c>
+      <c r="G47" s="8">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2">
+        <v>228</v>
+      </c>
+      <c r="E48" s="2">
+        <v>283.5</v>
+      </c>
+      <c r="F48" s="8">
+        <v>756000</v>
+      </c>
+      <c r="G48" s="8">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>160</v>
+      </c>
+      <c r="E49" s="2">
+        <v>191.7</v>
+      </c>
+      <c r="F49" s="8">
+        <v>511350</v>
+      </c>
+      <c r="G49" s="8">
+        <v>294229.166666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2">
+        <v>160</v>
+      </c>
+      <c r="E50" s="2">
+        <v>191.7</v>
+      </c>
+      <c r="F50" s="8">
+        <v>511350</v>
+      </c>
+      <c r="G50" s="8">
+        <v>294229.166666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2">
+        <v>188</v>
+      </c>
+      <c r="E51" s="2">
+        <v>229.5</v>
+      </c>
+      <c r="F51" s="8">
+        <v>612150</v>
+      </c>
+      <c r="G51" s="8">
+        <v>352229.166666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2">
+        <v>188</v>
+      </c>
+      <c r="E52" s="2">
+        <v>229.5</v>
+      </c>
+      <c r="F52" s="8">
+        <v>612150</v>
+      </c>
+      <c r="G52" s="8">
+        <v>352229.166666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>448</v>
-      </c>
-      <c r="E44" s="1">
-        <v>580.5</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1548120</v>
-      </c>
-      <c r="G44" s="7">
-        <v>890783.333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="D53" s="2">
+        <v>188</v>
+      </c>
+      <c r="E53" s="2">
+        <v>229.5</v>
+      </c>
+      <c r="F53" s="8">
+        <v>612150</v>
+      </c>
+      <c r="G53" s="8">
+        <v>352229.166666667</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="A54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="2">
+        <v>147</v>
+      </c>
+      <c r="E54" s="2">
+        <v>174.15</v>
+      </c>
+      <c r="F54" s="8">
+        <v>464520</v>
+      </c>
+      <c r="G54" s="8">
+        <v>267283.333333333</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="A55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="2">
+        <v>147</v>
+      </c>
+      <c r="E55" s="2">
+        <v>174.15</v>
+      </c>
+      <c r="F55" s="8">
+        <v>464520</v>
+      </c>
+      <c r="G55" s="8">
+        <v>267283.333333333</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="A56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="2">
+        <v>147</v>
+      </c>
+      <c r="E56" s="2">
+        <v>174.15</v>
+      </c>
+      <c r="F56" s="8">
+        <v>464520</v>
+      </c>
+      <c r="G56" s="8">
+        <v>267283.333333333</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3"/>
@@ -2308,8 +2556,8 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4"/>
@@ -2326,8 +2574,8 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3"/>
@@ -2335,8 +2583,8 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3"/>
@@ -2344,8 +2592,8 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3"/>
@@ -2353,8 +2601,8 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3"/>
@@ -2362,8 +2610,8 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3"/>
@@ -2371,8 +2619,8 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3"/>
@@ -2380,8 +2628,8 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3"/>
@@ -2389,8 +2637,8 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3"/>
@@ -2398,8 +2646,8 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3"/>
@@ -2407,8 +2655,8 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3"/>
@@ -2416,8 +2664,8 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3"/>
@@ -2425,8 +2673,8 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3"/>
@@ -2434,8 +2682,8 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3"/>
@@ -2443,8 +2691,8 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3"/>
@@ -2452,8 +2700,8 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3"/>
@@ -2461,8 +2709,8 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3"/>
@@ -2470,8 +2718,8 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3"/>
@@ -2479,8 +2727,8 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3"/>
@@ -2488,8 +2736,8 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
@@ -2497,8 +2745,8 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3"/>
@@ -2506,8 +2754,8 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3"/>
@@ -2515,8 +2763,8 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3"/>
@@ -2524,8 +2772,8 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="3"/>
@@ -2533,8 +2781,8 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="3"/>
@@ -2542,8 +2790,8 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="3"/>
@@ -2551,8 +2799,8 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3"/>
@@ -2560,8 +2808,8 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="3"/>
@@ -2569,8 +2817,8 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3"/>
@@ -2578,8 +2826,8 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="3"/>
@@ -2587,8 +2835,8 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="9"/>
@@ -2614,8 +2862,8 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3"/>
@@ -2623,8 +2871,8 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="3"/>
@@ -2632,8 +2880,8 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3"/>
@@ -2641,8 +2889,8 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="3"/>
@@ -2650,8 +2898,8 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="3"/>
@@ -2659,8 +2907,8 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="3"/>
@@ -2668,8 +2916,8 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="3"/>
@@ -2677,8 +2925,8 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="3"/>
@@ -2686,8 +2934,8 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="3"/>
@@ -2695,8 +2943,8 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="3"/>
@@ -2704,8 +2952,8 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="3"/>
@@ -2713,8 +2961,8 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="14"/>
@@ -2740,8 +2988,8 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3"/>
@@ -2749,8 +2997,8 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3"/>
@@ -2758,8 +3006,8 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="3"/>
@@ -2767,8 +3015,8 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="3"/>
@@ -2776,8 +3024,8 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3"/>
@@ -2785,8 +3033,8 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="3"/>
@@ -2794,8 +3042,8 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3"/>
@@ -2803,8 +3051,8 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3"/>
@@ -2812,8 +3060,8 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3"/>
@@ -2821,8 +3069,8 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="4:7">
       <c r="D115" s="18"/>
@@ -2836,8 +3084,8 @@
       <c r="C116" s="19"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="3"/>
@@ -2845,8 +3093,8 @@
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="3"/>
@@ -2854,8 +3102,8 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="3"/>
@@ -2863,8 +3111,8 @@
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3"/>
@@ -2872,8 +3120,8 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3"/>
@@ -2881,8 +3129,8 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3"/>
@@ -2890,8 +3138,8 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3"/>
@@ -2899,8 +3147,8 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="3"/>
@@ -2908,8 +3156,8 @@
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="3"/>
@@ -2917,8 +3165,8 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="3"/>
@@ -2926,8 +3174,8 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="3"/>
@@ -2935,8 +3183,8 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="3"/>
@@ -2944,8 +3192,8 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3"/>
@@ -2953,8 +3201,8 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3"/>
@@ -2962,8 +3210,8 @@
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3"/>
@@ -2971,8 +3219,8 @@
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3"/>
@@ -2980,8 +3228,8 @@
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3"/>
@@ -2989,8 +3237,8 @@
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3"/>
@@ -2998,8 +3246,8 @@
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3"/>
@@ -3007,8 +3255,8 @@
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3"/>
@@ -3016,8 +3264,8 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="3"/>
@@ -3025,8 +3273,8 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="3"/>
@@ -3034,8 +3282,8 @@
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3"/>
@@ -3043,8 +3291,8 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3"/>
@@ -3052,8 +3300,8 @@
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3"/>
@@ -3061,8 +3309,8 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3"/>
@@ -3070,8 +3318,8 @@
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3"/>
@@ -3079,8 +3327,8 @@
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="3"/>
@@ -3088,8 +3336,8 @@
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3"/>
@@ -3097,8 +3345,8 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3"/>
@@ -3106,8 +3354,8 @@
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3"/>
@@ -3115,8 +3363,8 @@
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3"/>
@@ -3124,8 +3372,8 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="3"/>
@@ -3133,8 +3381,8 @@
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3"/>
@@ -3142,8 +3390,8 @@
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3"/>
@@ -3151,8 +3399,8 @@
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3"/>
@@ -3160,8 +3408,8 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="3"/>
@@ -3169,8 +3417,8 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3"/>
@@ -3178,8 +3426,8 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="3"/>
@@ -3187,8 +3435,8 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3"/>
@@ -3196,8 +3444,8 @@
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3"/>
@@ -3205,8 +3453,8 @@
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3"/>
@@ -3214,8 +3462,8 @@
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3"/>
@@ -3223,8 +3471,8 @@
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3"/>
@@ -3232,8 +3480,8 @@
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3"/>
@@ -3241,8 +3489,8 @@
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3"/>
@@ -3250,8 +3498,8 @@
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3"/>
@@ -3259,8 +3507,8 @@
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3"/>
@@ -3268,8 +3516,8 @@
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="3"/>
@@ -3277,8 +3525,8 @@
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3"/>
@@ -3286,8 +3534,8 @@
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="21"/>
@@ -3295,8 +3543,8 @@
       <c r="C167" s="21"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="21"/>
@@ -3304,8 +3552,8 @@
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="21"/>
@@ -3313,8 +3561,8 @@
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="21"/>
@@ -3322,8 +3570,8 @@
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="21"/>
@@ -3331,8 +3579,8 @@
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="21"/>
@@ -3340,8 +3588,8 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="21"/>
@@ -3349,8 +3597,8 @@
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="21"/>
@@ -3358,8 +3606,8 @@
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="21"/>
@@ -3367,8 +3615,8 @@
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="21"/>
@@ -3376,8 +3624,8 @@
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="21"/>
@@ -3385,8 +3633,8 @@
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="21"/>
@@ -3394,8 +3642,8 @@
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="21"/>
@@ -3403,8 +3651,8 @@
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="21"/>
@@ -3412,8 +3660,8 @@
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="21"/>
@@ -3421,8 +3669,8 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="21"/>
@@ -3430,8 +3678,8 @@
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="21"/>
@@ -3439,8 +3687,8 @@
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="21"/>
@@ -3448,8 +3696,8 @@
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/data/test3.xlsx
+++ b/src/data/test3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>Номи</t>
   </si>
@@ -37,82 +37,76 @@
     <t>12 месяц</t>
   </si>
   <si>
-    <t>S24 Ultra</t>
+    <t xml:space="preserve">13C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/128gb  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/128gb  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/256gb  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/128gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue </t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/128gb </t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/256gb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note 13 </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/128gb </t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note 13Pro </t>
+  </si>
+  <si>
+    <t>Purple</t>
   </si>
   <si>
     <t xml:space="preserve">12/512gb </t>
   </si>
   <si>
-    <t xml:space="preserve">Titanium Gray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium Black </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium Violet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium Yellow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/256gb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24+ </t>
-  </si>
-  <si>
-    <t>12/256gb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/256gb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/128gb </t>
-  </si>
-  <si>
-    <t>S23 Ultra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Green </t>
   </si>
   <si>
-    <t xml:space="preserve">Cream </t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S23 </t>
-  </si>
-  <si>
-    <t>Z Fold 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue </t>
-  </si>
-  <si>
-    <t>Z Flip 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/512gb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mint </t>
-  </si>
-  <si>
-    <t>Z Fold 4</t>
-  </si>
-  <si>
-    <t>S22</t>
+    <t xml:space="preserve">Note 13Pro + </t>
   </si>
   <si>
     <t xml:space="preserve">8/256gb 5G </t>
@@ -121,55 +115,7 @@
     <t xml:space="preserve">White </t>
   </si>
   <si>
-    <t xml:space="preserve">8/128gb 5G </t>
-  </si>
-  <si>
-    <t>A55</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Violet</t>
-  </si>
-  <si>
-    <t>Lime</t>
-  </si>
-  <si>
-    <t>A35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver </t>
-  </si>
-  <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/128gb </t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow </t>
-  </si>
-  <si>
-    <t>A05s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black </t>
-  </si>
-  <si>
-    <t xml:space="preserve">green </t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver </t>
+    <t xml:space="preserve">12/512gb 5G </t>
   </si>
 </sst>
 </file>
@@ -177,11 +123,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ [$UZS]_-;\-* #,##0\ [$UZS]_-;_-* &quot;-&quot;??\ [$UZS]_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ [$UZS]_-;\-* #,##0\ [$UZS]_-;_-* &quot;-&quot;??\ [$UZS]_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -220,14 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -240,6 +178,22 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +212,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -266,7 +243,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,9 +296,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,74 +307,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -385,7 +331,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,85 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +427,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,43 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,32 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -694,8 +614,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +650,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,158 +684,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -891,9 +837,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,7 +867,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1249,7 +1195,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G56"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1296,16 +1242,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>1140</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2">
-        <v>1458</v>
+        <v>162</v>
       </c>
       <c r="F2" s="8">
-        <v>3888570</v>
+        <v>431970</v>
       </c>
       <c r="G2" s="8">
-        <v>2237470.83333333</v>
+        <v>248554.166666667</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1319,16 +1265,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>1140</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2">
-        <v>1458</v>
+        <v>162</v>
       </c>
       <c r="F3" s="8">
-        <v>3888570</v>
+        <v>431970</v>
       </c>
       <c r="G3" s="8">
-        <v>2237470.83333333</v>
+        <v>248554.166666667</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1336,22 +1282,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>1140</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2">
-        <v>1458</v>
+        <v>172.8</v>
       </c>
       <c r="F4" s="8">
-        <v>3888570</v>
+        <v>460950</v>
       </c>
       <c r="G4" s="8">
-        <v>2237470.83333333</v>
+        <v>265229.166666667</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1359,22 +1305,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>1140</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2">
-        <v>1458</v>
+        <v>172.8</v>
       </c>
       <c r="F5" s="8">
-        <v>3888570</v>
+        <v>460950</v>
       </c>
       <c r="G5" s="8">
-        <v>2237470.83333333</v>
+        <v>265229.166666667</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1385,42 +1331,42 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1070</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2">
-        <v>1363.5</v>
+        <v>184.95</v>
       </c>
       <c r="F6" s="8">
-        <v>3636360</v>
+        <v>493290</v>
       </c>
       <c r="G6" s="8">
-        <v>2092350</v>
+        <v>283837.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>1070</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2">
-        <v>1363.5</v>
+        <v>189</v>
       </c>
       <c r="F7" s="8">
-        <v>3636360</v>
+        <v>504000</v>
       </c>
       <c r="G7" s="8">
-        <v>2092350</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1431,318 +1377,318 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>850</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2">
-        <v>1093.5</v>
+        <v>189</v>
       </c>
       <c r="F8" s="8">
-        <v>2916270</v>
+        <v>504000</v>
       </c>
       <c r="G8" s="8">
-        <v>1678012.5</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="2">
-        <v>750</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2">
-        <v>958.5</v>
+        <v>189</v>
       </c>
       <c r="F9" s="8">
-        <v>2556330</v>
+        <v>504000</v>
       </c>
       <c r="G9" s="8">
-        <v>1470904.16666667</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>750</v>
+        <v>163</v>
       </c>
       <c r="E10" s="2">
-        <v>958.5</v>
+        <v>195.75</v>
       </c>
       <c r="F10" s="8">
-        <v>2556330</v>
+        <v>522060</v>
       </c>
       <c r="G10" s="8">
-        <v>1470904.16666667</v>
+        <v>300391.666666667</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D11" s="2">
-        <v>710</v>
+        <v>163</v>
       </c>
       <c r="E11" s="2">
-        <v>904.5</v>
+        <v>195.75</v>
       </c>
       <c r="F11" s="8">
-        <v>2412270</v>
+        <v>522060</v>
       </c>
       <c r="G11" s="8">
-        <v>1388012.5</v>
+        <v>300391.666666667</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>980</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2">
-        <v>1255.5</v>
+        <v>195.75</v>
       </c>
       <c r="F12" s="8">
-        <v>3348450</v>
+        <v>522060</v>
       </c>
       <c r="G12" s="8">
-        <v>1926687.5</v>
+        <v>300391.666666667</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>980</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2">
-        <v>1255.5</v>
+        <v>216</v>
       </c>
       <c r="F13" s="8">
-        <v>3348450</v>
+        <v>576030</v>
       </c>
       <c r="G13" s="8">
-        <v>1926687.5</v>
+        <v>331445.833333333</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>980</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2">
-        <v>1255.5</v>
+        <v>236.25</v>
       </c>
       <c r="F14" s="8">
-        <v>3348450</v>
+        <v>630000</v>
       </c>
       <c r="G14" s="8">
-        <v>1926687.5</v>
+        <v>362500</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
-        <v>850</v>
+        <v>193</v>
       </c>
       <c r="E15" s="2">
-        <v>1093.5</v>
+        <v>236.25</v>
       </c>
       <c r="F15" s="8">
-        <v>2916270</v>
+        <v>630000</v>
       </c>
       <c r="G15" s="8">
-        <v>1678012.5</v>
+        <v>362500</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
-        <v>850</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2">
-        <v>1093.5</v>
+        <v>236.25</v>
       </c>
       <c r="F16" s="8">
-        <v>2916270</v>
+        <v>630000</v>
       </c>
       <c r="G16" s="8">
-        <v>1678012.5</v>
+        <v>362500</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
-        <v>850</v>
+        <v>203</v>
       </c>
       <c r="E17" s="2">
-        <v>1093.5</v>
+        <v>249.75</v>
       </c>
       <c r="F17" s="8">
-        <v>2916270</v>
+        <v>666120</v>
       </c>
       <c r="G17" s="8">
-        <v>1678012.5</v>
+        <v>383283.333333333</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
-        <v>660</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2">
-        <v>837</v>
+        <v>263.25</v>
       </c>
       <c r="F18" s="8">
-        <v>2232300</v>
+        <v>702030</v>
       </c>
       <c r="G18" s="8">
-        <v>1284458.33333333</v>
+        <v>403945.833333333</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
-        <v>660</v>
+        <v>213</v>
       </c>
       <c r="E19" s="2">
-        <v>837</v>
+        <v>263.25</v>
       </c>
       <c r="F19" s="8">
-        <v>2232300</v>
+        <v>702030</v>
       </c>
       <c r="G19" s="8">
-        <v>1284458.33333333</v>
+        <v>403945.833333333</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2">
-        <v>625</v>
+        <v>213</v>
       </c>
       <c r="E20" s="2">
-        <v>789.75</v>
+        <v>263.25</v>
       </c>
       <c r="F20" s="8">
-        <v>2106300</v>
+        <v>702030</v>
       </c>
       <c r="G20" s="8">
-        <v>1211958.33333333</v>
+        <v>403945.833333333</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D21" s="2">
-        <v>625</v>
+        <v>268</v>
       </c>
       <c r="E21" s="2">
-        <v>789.75</v>
+        <v>337.5</v>
       </c>
       <c r="F21" s="8">
-        <v>2106300</v>
+        <v>900060</v>
       </c>
       <c r="G21" s="8">
-        <v>1211958.33333333</v>
+        <v>517891.666666667</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1750,22 +1696,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
-        <v>1210</v>
+        <v>268</v>
       </c>
       <c r="E22" s="2">
-        <v>1552.5</v>
+        <v>337.5</v>
       </c>
       <c r="F22" s="8">
-        <v>4140570</v>
+        <v>900060</v>
       </c>
       <c r="G22" s="8">
-        <v>2382470.83333333</v>
+        <v>517891.666666667</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1773,22 +1719,22 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>1210</v>
+        <v>268</v>
       </c>
       <c r="E23" s="2">
-        <v>1552.5</v>
+        <v>337.5</v>
       </c>
       <c r="F23" s="8">
-        <v>4140570</v>
+        <v>900060</v>
       </c>
       <c r="G23" s="8">
-        <v>2382470.83333333</v>
+        <v>517891.666666667</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1796,22 +1742,22 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
-        <v>1210</v>
+        <v>323</v>
       </c>
       <c r="E24" s="2">
-        <v>1552.5</v>
+        <v>411.75</v>
       </c>
       <c r="F24" s="8">
-        <v>4140570</v>
+        <v>1098090</v>
       </c>
       <c r="G24" s="8">
-        <v>2382470.83333333</v>
+        <v>631837.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1819,736 +1765,386 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
-        <v>1160</v>
+        <v>323</v>
       </c>
       <c r="E25" s="2">
-        <v>1485</v>
+        <v>411.75</v>
       </c>
       <c r="F25" s="8">
-        <v>3960600</v>
+        <v>1098090</v>
       </c>
       <c r="G25" s="8">
-        <v>2278916.66666667</v>
+        <v>631837.5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
-        <v>1160</v>
+        <v>393</v>
       </c>
       <c r="E26" s="2">
-        <v>1485</v>
+        <v>506.25</v>
       </c>
       <c r="F26" s="8">
-        <v>3960600</v>
+        <v>1350090</v>
       </c>
       <c r="G26" s="8">
-        <v>2278916.66666667</v>
+        <v>776837.5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>720</v>
+        <v>397</v>
       </c>
       <c r="E27" s="2">
-        <v>918</v>
+        <v>511.65</v>
       </c>
       <c r="F27" s="8">
-        <v>2448390</v>
+        <v>1364580</v>
       </c>
       <c r="G27" s="8">
-        <v>1408795.83333333</v>
+        <v>785175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
-        <v>690</v>
+        <v>397</v>
       </c>
       <c r="E28" s="2">
-        <v>877.5</v>
+        <v>511.65</v>
       </c>
       <c r="F28" s="8">
-        <v>2340240</v>
+        <v>1364580</v>
       </c>
       <c r="G28" s="8">
-        <v>1346566.66666667</v>
+        <v>785175</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="E29" s="2">
-        <v>877.5</v>
+        <v>583.2</v>
       </c>
       <c r="F29" s="8">
-        <v>2340240</v>
+        <v>1555470</v>
       </c>
       <c r="G29" s="8">
-        <v>1346566.66666667</v>
+        <v>895012.5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
-        <v>1040</v>
+        <v>450</v>
       </c>
       <c r="E30" s="2">
-        <v>1336.5</v>
+        <v>583.2</v>
       </c>
       <c r="F30" s="8">
-        <v>3564540</v>
+        <v>1555470</v>
       </c>
       <c r="G30" s="8">
-        <v>2051025</v>
+        <v>895012.5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="E31" s="2">
-        <v>675</v>
+        <v>583.2</v>
       </c>
       <c r="F31" s="8">
-        <v>1800330</v>
+        <v>1555470</v>
       </c>
       <c r="G31" s="8">
-        <v>1035904.16666667</v>
+        <v>895012.5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="2">
-        <v>540</v>
-      </c>
-      <c r="E32" s="2">
-        <v>675</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1800330</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1035904.16666667</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="2">
-        <v>490</v>
-      </c>
-      <c r="E33" s="2">
-        <v>607.5</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1620150</v>
-      </c>
-      <c r="G33" s="8">
-        <v>932229.166666667</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2">
-        <v>490</v>
-      </c>
-      <c r="E34" s="2">
-        <v>607.5</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1620150</v>
-      </c>
-      <c r="G34" s="8">
-        <v>932229.166666667</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="2">
-        <v>373</v>
-      </c>
-      <c r="E35" s="2">
-        <v>479.25</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1278060</v>
-      </c>
-      <c r="G35" s="8">
-        <v>735391.666666667</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2">
-        <v>373</v>
-      </c>
-      <c r="E36" s="2">
-        <v>479.25</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1278060</v>
-      </c>
-      <c r="G36" s="8">
-        <v>735391.666666667</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="2">
-        <v>373</v>
-      </c>
-      <c r="E37" s="2">
-        <v>479.25</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1278060</v>
-      </c>
-      <c r="G37" s="8">
-        <v>735391.666666667</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="2">
-        <v>343</v>
-      </c>
-      <c r="E38" s="2">
-        <v>438.75</v>
-      </c>
-      <c r="F38" s="8">
-        <v>1170120</v>
-      </c>
-      <c r="G38" s="8">
-        <v>673283.333333333</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="2">
-        <v>343</v>
-      </c>
-      <c r="E39" s="2">
-        <v>438.75</v>
-      </c>
-      <c r="F39" s="8">
-        <v>1170120</v>
-      </c>
-      <c r="G39" s="8">
-        <v>673283.333333333</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="2">
-        <v>332</v>
-      </c>
-      <c r="E40" s="2">
-        <v>423.9</v>
-      </c>
-      <c r="F40" s="8">
-        <v>1130640</v>
-      </c>
-      <c r="G40" s="8">
-        <v>650566.666666667</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="2">
-        <v>332</v>
-      </c>
-      <c r="E41" s="2">
-        <v>423.9</v>
-      </c>
-      <c r="F41" s="8">
-        <v>1130640</v>
-      </c>
-      <c r="G41" s="8">
-        <v>650566.666666667</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2">
-        <v>332</v>
-      </c>
-      <c r="E42" s="2">
-        <v>423.9</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1130640</v>
-      </c>
-      <c r="G42" s="8">
-        <v>650566.666666667</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="2">
-        <v>332</v>
-      </c>
-      <c r="E43" s="2">
-        <v>423.9</v>
-      </c>
-      <c r="F43" s="8">
-        <v>1130640</v>
-      </c>
-      <c r="G43" s="8">
-        <v>650566.666666667</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="2">
-        <v>303</v>
-      </c>
-      <c r="E44" s="2">
-        <v>384.75</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1026060</v>
-      </c>
-      <c r="G44" s="8">
-        <v>590391.666666667</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="2">
-        <v>303</v>
-      </c>
-      <c r="E45" s="2">
-        <v>384.75</v>
-      </c>
-      <c r="F45" s="8">
-        <v>1026060</v>
-      </c>
-      <c r="G45" s="8">
-        <v>590391.666666667</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="2">
-        <v>228</v>
-      </c>
-      <c r="E46" s="2">
-        <v>283.5</v>
-      </c>
-      <c r="F46" s="8">
-        <v>756000</v>
-      </c>
-      <c r="G46" s="8">
-        <v>435000</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="2">
-        <v>228</v>
-      </c>
-      <c r="E47" s="2">
-        <v>283.5</v>
-      </c>
-      <c r="F47" s="8">
-        <v>756000</v>
-      </c>
-      <c r="G47" s="8">
-        <v>435000</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="2">
-        <v>228</v>
-      </c>
-      <c r="E48" s="2">
-        <v>283.5</v>
-      </c>
-      <c r="F48" s="8">
-        <v>756000</v>
-      </c>
-      <c r="G48" s="8">
-        <v>435000</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="2">
-        <v>160</v>
-      </c>
-      <c r="E49" s="2">
-        <v>191.7</v>
-      </c>
-      <c r="F49" s="8">
-        <v>511350</v>
-      </c>
-      <c r="G49" s="8">
-        <v>294229.166666667</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="2">
-        <v>160</v>
-      </c>
-      <c r="E50" s="2">
-        <v>191.7</v>
-      </c>
-      <c r="F50" s="8">
-        <v>511350</v>
-      </c>
-      <c r="G50" s="8">
-        <v>294229.166666667</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2">
-        <v>188</v>
-      </c>
-      <c r="E51" s="2">
-        <v>229.5</v>
-      </c>
-      <c r="F51" s="8">
-        <v>612150</v>
-      </c>
-      <c r="G51" s="8">
-        <v>352229.166666667</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="2">
-        <v>188</v>
-      </c>
-      <c r="E52" s="2">
-        <v>229.5</v>
-      </c>
-      <c r="F52" s="8">
-        <v>612150</v>
-      </c>
-      <c r="G52" s="8">
-        <v>352229.166666667</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="2">
-        <v>188</v>
-      </c>
-      <c r="E53" s="2">
-        <v>229.5</v>
-      </c>
-      <c r="F53" s="8">
-        <v>612150</v>
-      </c>
-      <c r="G53" s="8">
-        <v>352229.166666667</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="2">
-        <v>147</v>
-      </c>
-      <c r="E54" s="2">
-        <v>174.15</v>
-      </c>
-      <c r="F54" s="8">
-        <v>464520</v>
-      </c>
-      <c r="G54" s="8">
-        <v>267283.333333333</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="2">
-        <v>147</v>
-      </c>
-      <c r="E55" s="2">
-        <v>174.15</v>
-      </c>
-      <c r="F55" s="8">
-        <v>464520</v>
-      </c>
-      <c r="G55" s="8">
-        <v>267283.333333333</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="2">
-        <v>147</v>
-      </c>
-      <c r="E56" s="2">
-        <v>174.15</v>
-      </c>
-      <c r="F56" s="8">
-        <v>464520</v>
-      </c>
-      <c r="G56" s="8">
-        <v>267283.333333333</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3"/>
